--- a/Excel/GuideConfig.xlsx
+++ b/Excel/GuideConfig.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_2022_0213\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFC17CD-A240-4BE8-AA9B-696109FAE5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F556672E-41D0-4665-BBB8-37A1C5C34AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuideProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -86,7 +76,39 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.等级 多少级 暂时没有</t>
+1.打开界面
+2.进入副本
+3.接取任务
+4.提交任务
+5.掉落道具</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{78836FB2-9778-48A3-876A-ABF564D45D03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1  按钮
+2  点击npc
+</t>
         </r>
       </text>
     </comment>
@@ -95,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -123,22 +145,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Triger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>下一步</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,68 +177,105 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Global/UI/Low/UIMain(Clone)/Bottom/LeftBottomBtns/Btn_RoseSkill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,8,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,12,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,15,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global/UI/Low/UIMain(Clone)/Bottom/LeftBottomBtns/Btn_RoseEquip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global/UI/Low/UIMain(Clone)/Bottom/LeftBottomBtns/Btn_MakeItem</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global/UI/Low/UIRole(Clone)/FunctionSetBtn/Btn_HuiShow/Button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global/UI/Low/UIRole(Clone)/FunctionSetBtn/Btn_XiLian/Button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global/UI/Low/UISkill(Clone)/FunctionSetBtn/Btn_TianFu/Button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习技能指引</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收装备指引</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重铸系统指引</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>制造系统指引</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专精系统开启</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>TrigerType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdventureBtn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionParams</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入副本1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterList;0@Image_DI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterContent;0@ButtonEnter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIMainTask@TaskShowList;0@ButtonTask</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrigerParams</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Main/UIMain</t>
+  </si>
+  <si>
+    <t>Dungeon/UIDungeonLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dungeon/UIDungeon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Task/UITaskGet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtnCommitTask1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入副本2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入副本3</t>
+  </si>
+  <si>
+    <t>进入副本4</t>
+  </si>
+  <si>
+    <t>进入副本5</t>
+  </si>
+  <si>
+    <t>进入副本6</t>
+  </si>
+  <si>
+    <t>进入副本7</t>
+  </si>
+  <si>
+    <t>ActionTarget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIMainSkill@Btn_ShiQu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入副本8</t>
   </si>
 </sst>
 </file>
@@ -309,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,6 +365,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:J23"/>
+  <dimension ref="C3:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -639,80 +685,99 @@
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="76" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="K4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>3</v>
@@ -724,10 +789,19 @@
         <v>3</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="L5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -735,207 +809,273 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>10002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>11001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>11002</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
+    <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>10003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="1">
+      <c r="M8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
-        <v>11002</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>10004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20001003</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1">
-        <v>12001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>12002</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
-        <v>12002</v>
+        <v>10005</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
-        <v>13001</v>
+        <v>10006</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1">
+        <v>30010000</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20001003</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>10007</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>30010001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <v>14001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>14002</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="1">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>10008</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>14002</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GuideConfig.xlsx
+++ b/Excel/GuideConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F556672E-41D0-4665-BBB8-37A1C5C34AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E19243F-221A-463A-886D-19054506AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuideProto" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>进入副本1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ChapterList;0@Image_DI</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -236,25 +232,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>进入副本2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入副本3</t>
-  </si>
-  <si>
-    <t>进入副本4</t>
-  </si>
-  <si>
-    <t>进入副本5</t>
-  </si>
-  <si>
-    <t>进入副本6</t>
-  </si>
-  <si>
-    <t>进入副本7</t>
-  </si>
-  <si>
     <t>ActionTarget</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -275,7 +252,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>进入副本8</t>
+    <t>点击按钮进入探险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择章节</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击进入探险</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮提交任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击任务开始寻路</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击拾取掉落道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -367,7 +365,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:M13"/>
+  <dimension ref="C3:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -713,13 +711,13 @@
         <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>11</v>
@@ -745,13 +743,13 @@
         <v>15</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>18</v>
@@ -815,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
@@ -830,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -850,22 +848,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -885,28 +883,28 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -931,14 +929,11 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
@@ -952,28 +947,28 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
@@ -1000,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
@@ -1026,22 +1021,19 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
@@ -1061,21 +1053,27 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GuideConfig.xlsx
+++ b/Excel/GuideConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E19243F-221A-463A-886D-19054506AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B33DA3-CE33-4DAB-A8DD-72A76AC00D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuideProto" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -273,6 +273,13 @@
   </si>
   <si>
     <t>点击拾取掉落道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtonGet</t>
+  </si>
+  <si>
+    <t>点击接取任务</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -672,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:M19"/>
+  <dimension ref="C3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -686,7 +693,8 @@
     <col min="4" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="37.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
@@ -990,7 +998,7 @@
       <c r="I11" s="1">
         <v>20001003</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="1">
         <v>0</v>
       </c>
@@ -1012,22 +1020,25 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="6">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1044,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>30010001</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -1056,24 +1067,56 @@
         <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>10009</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GuideConfig.xlsx
+++ b/Excel/GuideConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B33DA3-CE33-4DAB-A8DD-72A76AC00D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BEDEB1-E473-457A-869F-19668D48558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuideProto" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{6D121331-FDCA-4A51-AC20-53BF00FED196}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{6D121331-FDCA-4A51-AC20-53BF00FED196}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{29603301-C9CA-4097-A440-C42CF559928D}">
+    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{29603301-C9CA-4097-A440-C42CF559928D}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{78836FB2-9778-48A3-876A-ABF564D45D03}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{78836FB2-9778-48A3-876A-ABF564D45D03}">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -280,6 +280,26 @@
   </si>
   <si>
     <t>点击接取任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIMapMini@MiniMapButton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击去往矿洞二层</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:M20"/>
+  <dimension ref="C3:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -690,89 +710,96 @@
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.75" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
@@ -786,28 +813,31 @@
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -815,34 +845,37 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -850,34 +883,37 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -885,34 +921,37 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -920,28 +959,31 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>10001</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>20001003</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
@@ -949,34 +991,37 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
@@ -984,32 +1029,35 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>4</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>30010000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>20001003</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
@@ -1017,34 +1065,37 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
@@ -1052,31 +1103,34 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>30010001</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
@@ -1084,39 +1138,78 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
       <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>10010</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30010014</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GuideConfig.xlsx
+++ b/Excel/GuideConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BEDEB1-E473-457A-869F-19668D48558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA37AD98-75B8-4292-9842-08275C294B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuideProto" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,8 @@
 2.进入副本
 3.接取任务
 4.提交任务
-5.掉落道具</t>
+5.掉落道具
+6.技能升级</t>
         </r>
       </text>
     </comment>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -300,6 +301,28 @@
   </si>
   <si>
     <t>点击去往矿洞二层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/MiniMap/UIMapBig</t>
+  </si>
+  <si>
+    <t>Main/MiniMap/UIMapBig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Skill/UISkill</t>
+  </si>
+  <si>
+    <t>FunctionSetBtn;2@Button</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapNameSet;9@Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +725,7 @@
   <dimension ref="C3:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1206,10 +1229,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>10011</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GuideConfig.xlsx
+++ b/Excel/GuideConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA37AD98-75B8-4292-9842-08275C294B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907F8DD-B7AD-4BBD-892A-1E53C96D823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="C3:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
-        <v>10011</v>
+        <v>20011</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
-        <v>20001</v>
+        <v>30001</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>

--- a/Excel/GuideConfig.xlsx
+++ b/Excel/GuideConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907F8DD-B7AD-4BBD-892A-1E53C96D823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F83C617-2DA1-4FA0-9BA4-A787DF9DC5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,8 @@
 3.接取任务
 4.提交任务
 5.掉落道具
-6.技能升级</t>
+6.技能升级
+7.玩家升级</t>
         </r>
       </text>
     </comment>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -323,6 +324,26 @@
   </si>
   <si>
     <t>MapNameSet;9@Image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Btn_RoseEquip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性加点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Role/UIRole</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRoleProperty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubViewNode;1@ButtonAddPoint</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:N19"/>
+  <dimension ref="C3:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>20011</v>
       </c>
@@ -1305,8 +1326,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="1">
+        <v>40001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="1">
+        <v>40002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="1">
+        <v>40003</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/GuideConfig.xlsx
+++ b/Excel/GuideConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F83C617-2DA1-4FA0-9BA4-A787DF9DC5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF93F131-2FA1-441E-8D2C-BE941F76BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Id</t>
   </si>
@@ -344,6 +344,21 @@
   </si>
   <si>
     <t>SubViewNode;1@ButtonAddPoint</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Btn_RoseSkill</t>
+  </si>
+  <si>
+    <t>学习技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubViewNode;0@SkillListNode;1@ButtonLearn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main/Skill/UISkill</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -745,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -757,9 +772,9 @@
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="6" width="15.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="37.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.125" style="1" customWidth="1"/>
@@ -1440,8 +1455,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="1">
+        <v>50001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="1">
+        <v>50002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="23" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="24" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/Excel/GuideConfig.xlsx
+++ b/Excel/GuideConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF93F131-2FA1-441E-8D2C-BE941F76BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B6F0A1-BBD4-460F-B011-217C64EC7371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuideProto" sheetId="1" r:id="rId1"/>
@@ -323,10 +323,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MapNameSet;9@Image</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Btn_RoseEquip</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -359,6 +355,10 @@
   </si>
   <si>
     <t>Main/Skill/UISkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapNameSet;10@Image</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +761,7 @@
   <dimension ref="C3:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C22" sqref="A22:XFD22"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1291,7 @@
         <v>48</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         <v>24</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -1396,13 +1396,13 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>50</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -1434,22 +1434,22 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -1481,13 +1481,13 @@
         <v>24</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1519,13 +1519,13 @@
         <v>49</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
